--- a/BOM/ALERT_RIDER_HARDWARE_new.xlsx
+++ b/BOM/ALERT_RIDER_HARDWARE_new.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\contractual_projects\ALERT_RIDER\ALERT_RIDER_HARDWARE\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kicad6\KICAD 6.0.0\contractual_projects\ALERT_RIDER\ALERT_RIDER_HARDWARE\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B35EFC7-FC62-4619-A3E8-1EE449F3682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="ALERT_RIDER_HARDWARE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="320" uniqueCount="198">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="300" uniqueCount="184">
   <si>
     <t>Qty</t>
   </si>
@@ -51,18 +50,30 @@
     <t>greencharge-footprints:antenna-W3136</t>
   </si>
   <si>
+    <t>C2, C6, C35</t>
+  </si>
+  <si>
     <t>4.7u</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
+    <t>C4, C10</t>
+  </si>
+  <si>
     <t>100n</t>
   </si>
   <si>
+    <t>C5, C7, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C33</t>
+  </si>
+  <si>
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
+    <t>C8, C26</t>
+  </si>
+  <si>
     <t>1u</t>
   </si>
   <si>
@@ -72,7 +83,7 @@
     <t>10u</t>
   </si>
   <si>
-    <t>22p</t>
+    <t>C25, C34</t>
   </si>
   <si>
     <t>22u</t>
@@ -84,6 +95,9 @@
     <t>3.6pF</t>
   </si>
   <si>
+    <t>C28, C37</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -135,6 +149,9 @@
     <t>LED_SMD:LED_PLCC_2835_Handsoldering</t>
   </si>
   <si>
+    <t>F1, F2</t>
+  </si>
+  <si>
     <t>ASMD1206-200</t>
   </si>
   <si>
@@ -180,6 +197,9 @@
     <t>MS252012-R47M-W</t>
   </si>
   <si>
+    <t>L2, L3</t>
+  </si>
+  <si>
     <t>L_Ferrite</t>
   </si>
   <si>
@@ -201,9 +221,15 @@
     <t>IRLML5203TRPBF</t>
   </si>
   <si>
+    <t>Q2, Q7</t>
+  </si>
+  <si>
     <t>DMP3056L-7</t>
   </si>
   <si>
+    <t>Q3, Q4, Q5</t>
+  </si>
+  <si>
     <t>SK335N</t>
   </si>
   <si>
@@ -213,12 +239,18 @@
     <t>IRLML0100TRPBF</t>
   </si>
   <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
     <t>5.1K</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
+    <t>R3, R9, R11, R12, R19, R22, R25, R36, R37</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
@@ -228,18 +260,18 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
+    <t>R5, R10, R15, R21, R24, R31, R47</t>
+  </si>
+  <si>
     <t>1K</t>
   </si>
   <si>
+    <t>R6, R8</t>
+  </si>
+  <si>
     <t>100K</t>
   </si>
   <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
@@ -261,6 +293,9 @@
     <t>R18</t>
   </si>
   <si>
+    <t>R20, R23, R26, R32, R33, R41, R42, R43, R44, R45, R46</t>
+  </si>
+  <si>
     <t>20R</t>
   </si>
   <si>
@@ -297,6 +332,9 @@
     <t>2.7K</t>
   </si>
   <si>
+    <t>R38, R39, R40</t>
+  </si>
+  <si>
     <t>499R</t>
   </si>
   <si>
@@ -309,6 +347,9 @@
     <t>greencharge-footprints:SKRPACE010</t>
   </si>
   <si>
+    <t>SW2, SW6</t>
+  </si>
+  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -390,24 +431,6 @@
     <t>digikey-footprints:MSOP-10_W3mm</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>8MHz</t>
-  </si>
-  <si>
-    <t>Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>32.678KHz</t>
-  </si>
-  <si>
-    <t>Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
-  </si>
-  <si>
     <t>Z1</t>
   </si>
   <si>
@@ -417,84 +440,30 @@
     <t>digikey-footprints:SOD-123</t>
   </si>
   <si>
-    <t>C2, C6, C35</t>
-  </si>
-  <si>
-    <t>C4, C10</t>
-  </si>
-  <si>
-    <t>C5, C7, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C33</t>
-  </si>
-  <si>
-    <t>C8, C26</t>
-  </si>
-  <si>
-    <t>C11, C12, C13, C14</t>
-  </si>
-  <si>
-    <t>C25, C34</t>
-  </si>
-  <si>
-    <t>C28, C37</t>
-  </si>
-  <si>
-    <t>F1, F2</t>
-  </si>
-  <si>
-    <t>L2, L3</t>
-  </si>
-  <si>
-    <t>Q2, Q7</t>
-  </si>
-  <si>
-    <t>Q3, Q4, Q5</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>R3, R9, R11, R12, R19, R22, R25, R36, R37</t>
-  </si>
-  <si>
-    <t>R5, R10, R15, R21, R24, R31, R47</t>
-  </si>
-  <si>
-    <t>R6, R8</t>
-  </si>
-  <si>
-    <t>R20, R23, R26, R32, R33, R41, R42, R43, R44, R45, R46</t>
-  </si>
-  <si>
-    <t>R38, R39, R40</t>
-  </si>
-  <si>
-    <t>SW2, SW6</t>
-  </si>
-  <si>
     <t>Vendor</t>
   </si>
   <si>
     <t>W3136</t>
   </si>
   <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>CL10A475KA8NQNC</t>
+  </si>
+  <si>
+    <t>0603B104K500NT</t>
+  </si>
+  <si>
     <t>CC0402KRX7R9BB104</t>
   </si>
   <si>
-    <t>CL10A475KA8NQNC</t>
-  </si>
-  <si>
-    <t>0603B104K500NT</t>
-  </si>
-  <si>
     <t>0603B105K250NT</t>
   </si>
   <si>
     <t>CL05A106MQ5NUNC</t>
   </si>
   <si>
-    <t>CC0402JRNPO9BN220</t>
-  </si>
-  <si>
     <t>CL10A226MO7JZNC</t>
   </si>
   <si>
@@ -519,9 +488,6 @@
     <t>XL-2835SURC-02</t>
   </si>
   <si>
-    <t>LCSC</t>
-  </si>
-  <si>
     <t>D12, D13, D14</t>
   </si>
   <si>
@@ -561,9 +527,6 @@
     <t>RC0402FR-07100KL</t>
   </si>
   <si>
-    <t>RC0402FR-071ML</t>
-  </si>
-  <si>
     <t>RC0603FR-07511KL</t>
   </si>
   <si>
@@ -613,19 +576,13 @@
   </si>
   <si>
     <t>MCP73833T-AMI/UN</t>
-  </si>
-  <si>
-    <t>X32258MOB4SI</t>
-  </si>
-  <si>
-    <t>Q13FC1350000400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,7 +644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -760,22 +717,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,12 +896,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1084,7 +1021,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1106,38 +1043,33 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1171,7 +1103,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1212,7 +1143,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1224,7 +1155,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1271,23 +1202,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1323,23 +1237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1492,40 +1389,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1536,1256 +1432,1173 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>167</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
         <v>168</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
         <v>164</v>
       </c>
-      <c r="F19">
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" t="s">
-        <v>164</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" t="s">
-        <v>164</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" t="s">
-        <v>164</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" t="s">
-        <v>164</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" t="s">
-        <v>117</v>
-      </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" t="s">
-        <v>164</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" t="s">
-        <v>164</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D49" r:id="rId1" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF4990TCE_C4125.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>